--- a/Assets/Tables/Quests.xlsx
+++ b/Assets/Tables/Quests.xlsx
@@ -16,12 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>QuestID</t>
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Тест взят</t>
+  </si>
+  <si>
+    <t>Тест не взят</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -365,28 +374,45 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
